--- a/Data_frame/balancos_definitivos/MILK33.xlsx
+++ b/Data_frame/balancos_definitivos/MILK33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,86 +559,6 @@
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,54 +638,6 @@
       <c r="Y2" t="n">
         <v>450752.992</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1224419.968</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1287694.976</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1456505.984</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1978899.968</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1790464</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1835459.968</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1846473.984</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1969949.952</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1951410.048</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1994310.016</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2060829.056</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>2198124.032</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2301121.024</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>2317160.96</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2402662.912</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2434825.984</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -845,54 +717,6 @@
       <c r="Y3" t="n">
         <v>161892</v>
       </c>
-      <c r="Z3" t="n">
-        <v>905532.992</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>958592</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1104797.952</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1667209.984</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1587033.984</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1626178.944</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1635931.008</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1739651.968</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1689608.96</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1720413.952</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1649890.944</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1588231.04</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1844235.008</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1910306.048</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1973689.984</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1979954.048</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -972,54 +796,6 @@
       <c r="Y4" t="n">
         <v>210</v>
       </c>
-      <c r="Z4" t="n">
-        <v>9213</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>36692</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8346</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6419</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6491</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>60618</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51516</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>36139</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16140</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8916</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8524</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8882</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>16058</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>17041</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2113</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5582</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1099,54 +875,6 @@
       <c r="Y5" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" t="n">
-        <v>126412</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>136571.008</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>276643.008</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>856985.9840000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>695049.024</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>616190.976</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>583772.992</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>508881.984</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>384552.992</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>370424</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>379100.992</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>328744</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>336366.016</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>351103.008</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>408340.992</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>441263.008</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1226,54 +954,6 @@
       <c r="Y6" t="n">
         <v>19962</v>
       </c>
-      <c r="Z6" t="n">
-        <v>769907.968</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>785329.024</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>819809.024</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>803804.992</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>885494.0159999999</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>949369.9840000001</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000641.984</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1194631.04</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1288915.968</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1341074.048</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1262265.984</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1250605.056</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1491810.944</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>610281.9840000001</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1563235.968</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1533108.992</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1353,54 +1033,6 @@
       <c r="Y7" t="n">
         <v>6142</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>931880</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1480,54 +1112,6 @@
       <c r="Y8" t="n">
         <v>0</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1607,54 +1191,6 @@
       <c r="Y9" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1734,54 +1270,6 @@
       <c r="Y10" t="n">
         <v>313</v>
       </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1861,54 +1349,6 @@
       <c r="Y11" t="n">
         <v>135264.992</v>
       </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1988,54 +1428,6 @@
       <c r="Y12" t="n">
         <v>131354</v>
       </c>
-      <c r="Z12" t="n">
-        <v>312568</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>323287.008</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>345120.992</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>305847.008</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>196051.008</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>202324</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>200368</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>216007.008</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>243288</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>255156.992</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>390692</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>584441.024</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>431611.008</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>379648.992</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>400342.016</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>423060.992</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2115,54 +1507,6 @@
       <c r="Y13" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2242,54 +1586,6 @@
       <c r="Y14" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>270</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>726</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>9394</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1022</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2369,54 +1665,6 @@
       <c r="Y15" t="n">
         <v>0</v>
       </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2496,54 +1744,6 @@
       <c r="Y16" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" t="n">
-        <v>292457.984</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>303076.992</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>322472</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>303876</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>192928.992</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>197783.008</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>196208</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>215790</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>243091.008</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>254944.992</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>381576</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>572723.968</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>431104.992</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>286484.992</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>390151.008</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>421614.016</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2623,54 +1823,6 @@
       <c r="Y17" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>92260</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2750,54 +1902,6 @@
       <c r="Y18" t="n">
         <v>0</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2877,54 +1981,6 @@
       <c r="Y19" t="n">
         <v>0</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3004,54 +2060,6 @@
       <c r="Y20" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3131,54 +2139,6 @@
       <c r="Y21" t="n">
         <v>131354</v>
       </c>
-      <c r="Z21" t="n">
-        <v>20110</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>20210</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>22649</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1971</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>3122</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>4541</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>4160</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>217</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>197</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>212</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9116</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>11717</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>236</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>178</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>797</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>425</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3258,54 +2218,6 @@
       <c r="Y22" t="n">
         <v>1584</v>
       </c>
-      <c r="Z22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1487</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1487</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>4584</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>4584</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>4584</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>4584</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>6614</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>12181</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>12422</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>14330</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>16396</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>19894</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3385,54 +2297,6 @@
       <c r="Y23" t="n">
         <v>153584.992</v>
       </c>
-      <c r="Z23" t="n">
-        <v>5756</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>5299</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>6098</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>5354</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>5661</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>5265</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>5404</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9539</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>13771</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>14016</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13508</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>12982</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>12604</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>12654</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>12044</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>11757</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3512,54 +2376,6 @@
       <c r="Y24" t="n">
         <v>2338</v>
       </c>
-      <c r="Z24" t="n">
-        <v>363</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>317</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>289</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>289</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>231</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>205</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>187</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>168</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>158</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>139</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>124</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>289</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>249</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>222</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>191</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>160</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3639,54 +2455,6 @@
       <c r="Y25" t="n">
         <v>0</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3766,54 +2534,6 @@
       <c r="Y26" t="n">
         <v>450752.992</v>
       </c>
-      <c r="Z26" t="n">
-        <v>1224419.968</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1287694.976</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1456505.984</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1978899.968</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1790464</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1835459.968</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1846473.984</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1969949.952</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1951410.048</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1994310.016</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>2060829.056</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>2198124.032</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>2301121.024</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>2317160.96</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>2402662.912</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>2434825.984</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3893,54 +2613,6 @@
       <c r="Y27" t="n">
         <v>326414.016</v>
       </c>
-      <c r="Z27" t="n">
-        <v>481831.008</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>510625.984</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>611792</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>613443.008</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>503174.016</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>524828.992</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>531896</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>647468.992</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>665681.024</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>643972.992</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>655500.992</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>688254.0159999999</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>601827.968</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>495455.008</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>634556.992</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>643318.976</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4020,54 +2692,6 @@
       <c r="Y28" t="n">
         <v>0</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4147,54 +2771,6 @@
       <c r="Y29" t="n">
         <v>32214</v>
       </c>
-      <c r="Z29" t="n">
-        <v>16244</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>15220</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>14514</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>22114</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>15697</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>22804</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>18746</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>23481</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>41916</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>46807</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>54699</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>39653</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>27915</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>30945</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>49107</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>52793</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4274,54 +2850,6 @@
       <c r="Y30" t="n">
         <v>203312</v>
       </c>
-      <c r="Z30" t="n">
-        <v>15864</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>15874</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>20278</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>18438</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>15240</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>16858</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>17020</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>17542</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>19034</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>12299</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>18728</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>19895</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>21254</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>21224</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>21002</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>22322</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4401,54 +2929,6 @@
       <c r="Y31" t="n">
         <v>12064</v>
       </c>
-      <c r="Z31" t="n">
-        <v>89548</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>156604</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>124184</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>173006</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>56194</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>47647</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>50456</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>24785</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>6824</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>4114</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>2857</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>21736</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>46358</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>33162</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>47585</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>54640</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4528,54 +3008,6 @@
       <c r="Y32" t="n">
         <v>0</v>
       </c>
-      <c r="Z32" t="n">
-        <v>118314</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>71283</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>76266</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>30853</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>29289</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>29489</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>31451</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>35102</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>35984</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>40148</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>31426</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1619</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1539</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1812</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>27160</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>37742</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4655,54 +3087,6 @@
       <c r="Y33" t="n">
         <v>0</v>
       </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4782,54 +3166,6 @@
       <c r="Y34" t="n">
         <v>73123</v>
       </c>
-      <c r="Z34" t="n">
-        <v>195576</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>197400.992</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>320687.008</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>309115.008</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>334379.008</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>350116.992</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>349801.984</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>479372</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>496136.992</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>453744.992</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>470348</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>525264</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>437175.008</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>346366.016</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>412912.992</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>422807.008</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4909,54 +3245,6 @@
       <c r="Y35" t="n">
         <v>5701</v>
       </c>
-      <c r="Z35" t="n">
-        <v>46285</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>54244</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>55863</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>59917</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>52375</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>57914</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>64421</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>67187</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>65786</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>86860</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>77443</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>80087</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>67587</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>61946</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>76790</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>53015</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5036,54 +3324,6 @@
       <c r="Y36" t="n">
         <v>0</v>
       </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5163,54 +3403,6 @@
       <c r="Y37" t="n">
         <v>640628.992</v>
       </c>
-      <c r="Z37" t="n">
-        <v>242228</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>197480.992</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>224912.992</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>171482</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>88616</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>107175</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>102371</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>94648</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>86707</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>110394</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>150268.992</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>211522</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>404080</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>500935.008</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>475492</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>530427.008</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5290,54 +3482,6 @@
       <c r="Y38" t="n">
         <v>7320</v>
       </c>
-      <c r="Z38" t="n">
-        <v>167656.992</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>122601</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>147683.008</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>94979</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>23039</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>25755</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>16631</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>10219</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>5610</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>24834</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>85651</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>115082</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>118641</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>152632.992</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>191035.008</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>227598</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5417,54 +3561,6 @@
       <c r="Y39" t="n">
         <v>39674</v>
       </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5544,54 +3640,6 @@
       <c r="Y40" t="n">
         <v>110186</v>
       </c>
-      <c r="Z40" t="n">
-        <v>35754</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>34065</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>32614</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>33757</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>24097</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>40447</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>42593</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>41552</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>41028</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>39518</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>26193</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>54120</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>242108.992</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>307286.016</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>229614</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>253896</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5671,54 +3719,6 @@
       <c r="Y41" t="n">
         <v>20967</v>
       </c>
-      <c r="Z41" t="n">
-        <v>16076</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>16398</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>17520</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>16260</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>15086</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>13956</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>15282</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>16055</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>14682</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>20214</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>12220</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>12996</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>11787</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>13443</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>13842</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>14604</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5798,54 +3798,6 @@
       <c r="Y42" t="n">
         <v>0</v>
       </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5925,54 +3877,6 @@
       <c r="Y43" t="n">
         <v>462481.984</v>
       </c>
-      <c r="Z43" t="n">
-        <v>22741</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>24417</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>27096</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>26486</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>26394</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>27017</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>27865</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>26822</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>25387</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>25828</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>26205</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>29324</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>31543</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>27573</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>41001</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>34329</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6052,54 +3956,6 @@
       <c r="Y44" t="n">
         <v>0</v>
       </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6179,54 +4035,6 @@
       <c r="Y45" t="n">
         <v>0</v>
       </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6306,54 +4114,6 @@
       <c r="Y46" t="n">
         <v>-5</v>
       </c>
-      <c r="Z46" t="n">
-        <v>52527</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>65600</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>82982</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>35266</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>35895</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>41572</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>49041</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>50086</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>44022</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>62760</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>72707</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>99803</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>89112</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>92368</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>97304</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>89142</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6433,54 +4193,6 @@
       <c r="Y47" t="n">
         <v>-516284.984</v>
       </c>
-      <c r="Z47" t="n">
-        <v>447833.992</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>513987.968</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>536819.024</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1158709.04</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1162779.048</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1161884</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1163165.976</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1177746.96</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1154999.952</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1177183.04</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1182351.944</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>1198545.032</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>1206101.056</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>1228402.944</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>1195310.016</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>1171938.064</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6560,54 +4272,6 @@
       <c r="Y48" t="n">
         <v>209272.992</v>
       </c>
-      <c r="Z48" t="n">
-        <v>394111.008</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>457222.016</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>467025.984</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1154604.032</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1154604.032</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1154604.032</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1109028.992</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1109028.992</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6687,54 +4351,6 @@
       <c r="Y49" t="n">
         <v>933449.024</v>
       </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>-728</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>-40021</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>-26548</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>-31692</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>-31692</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>-31692</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>-31692</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>-22746</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>-11249</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>-9816</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>-8012</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6814,54 +4430,6 @@
       <c r="Y50" t="n">
         <v>0</v>
       </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6941,54 +4509,6 @@
       <c r="Y51" t="n">
         <v>0</v>
       </c>
-      <c r="Z51" t="n">
-        <v>53723</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>56766</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>70521</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>48032</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>12081</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>-3423</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>80685</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>68718</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>77663</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>99846</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>105015</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>121208</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>119818</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>130623</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>54204</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>54203</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7068,54 +4588,6 @@
       <c r="Y52" t="n">
         <v>-1659006.976</v>
       </c>
-      <c r="Z52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>14609</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>41893</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>16718</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7195,54 +4667,6 @@
       <c r="Y53" t="n">
         <v>0</v>
       </c>
-      <c r="Z53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>-3906</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>-3906</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>-3906</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7322,54 +4746,6 @@
       <c r="Y54" t="n">
         <v>0</v>
       </c>
-      <c r="Z54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7449,54 +4825,6 @@
       <c r="Y55" t="n">
         <v>0</v>
       </c>
-      <c r="Z55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7576,54 +4904,6 @@
       <c r="Y56" t="n">
         <v>0</v>
       </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7703,22 +4983,6 @@
       <c r="Y57" t="n">
         <v>0</v>
       </c>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7798,22 +5062,6 @@
       <c r="Y58" t="n">
         <v>0</v>
       </c>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7893,52 +5141,6 @@
       <c r="Y59" t="n">
         <v>28139</v>
       </c>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="n">
-        <v>134213</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>187588.992</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>111748</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>147899.04</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>165035.008</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>183530</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>186616</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>236638</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>206995.008</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>304927.008</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>306411.008</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>211234.976</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>298968</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>241671.008</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>258650</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8018,52 +5220,6 @@
       <c r="Y60" t="n">
         <v>-31730</v>
       </c>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="n">
-        <v>-101952</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>-145783.008</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>-78843</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>-124804.008</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>-125331</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>-140926</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>-137678</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>-182860</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>-146766</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>-241082</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>-235050</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>-171735.024</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>-247900</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>-190763.008</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>-220456.992</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8143,52 +5299,6 @@
       <c r="Y61" t="n">
         <v>-3591</v>
       </c>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="n">
-        <v>32261</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>41806</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>32905</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>23095</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>39704</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>42604</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>48938</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>53778</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>60229</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>63845</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>71361</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>39500.008</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>51068</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>50908</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>38193</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8268,52 +5378,6 @@
       <c r="Y62" t="n">
         <v>-880</v>
       </c>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="n">
-        <v>-10563</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>-6438</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>-13230</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>-11989</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>-10417</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>-11554</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>-16884</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>-19138</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>-16084</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>-19883</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>-26855</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>-19506</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>-15388</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>-22184</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>-23367</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8393,52 +5457,6 @@
       <c r="Y63" t="n">
         <v>-98696</v>
       </c>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="n">
-        <v>-8863</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>-5086</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-7225</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-6225</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-9777</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-11717</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-12342</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-13985</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-11198</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-16260</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-13101</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-13586</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-16098</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>-14491</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>-18534</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8518,52 +5536,6 @@
       <c r="Y64" t="n">
         <v>0</v>
       </c>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="n">
-        <v>-2884</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>-985</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>-595</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>4464</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>-1860</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>-8254</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>-4652</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>14766</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>-6615</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>-3632</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>-10386</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>20633</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>-1740</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>-2998</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>426</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8643,52 +5615,6 @@
       <c r="Y65" t="n">
         <v>1040</v>
       </c>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>-1932</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>177</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>-2254</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>-590</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>754</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>-4853</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>-1687</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>4401</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8768,52 +5694,6 @@
       <c r="Y66" t="n">
         <v>0</v>
       </c>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="n">
-        <v>-360</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>-1560</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>-150</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>-1766</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>-614</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>-2548</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>-13043</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>-3256</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>-17205</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>-525</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8893,52 +5773,6 @@
       <c r="Y67" t="n">
         <v>0</v>
       </c>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>63</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>-604</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>847</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>1120</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>2904</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9018,52 +5852,6 @@
       <c r="Y68" t="n">
         <v>-1518</v>
       </c>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="n">
-        <v>2576</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>4820</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>1790</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>6117</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>5787</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>5236</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>12406</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>15582</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>17944</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>24334</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>15683</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>18042</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>16496</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>23904</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>22047</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9143,52 +5931,6 @@
       <c r="Y69" t="n">
         <v>174</v>
       </c>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="n">
-        <v>4011</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>5913</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>3942</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>7022</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>5807</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>6924</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>13078</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>18065</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>18629</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>24734</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>-935</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>36471</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>17176</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>25370</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>-1330</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9268,52 +6010,6 @@
       <c r="Y70" t="n">
         <v>-1692</v>
       </c>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="n">
-        <v>-1435</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>-1093</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>-2152</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>-905</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>-1688</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>-672</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>-2483</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>-685</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>-400</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>16618</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>-18429</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>-680</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>-1466</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>23377</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9393,22 +6089,6 @@
       <c r="Y71" t="n">
         <v>0</v>
       </c>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
-      <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
-      <c r="AK71" t="inlineStr"/>
-      <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
-      <c r="AN71" t="inlineStr"/>
-      <c r="AO71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9488,22 +6168,6 @@
       <c r="Y72" t="n">
         <v>0</v>
       </c>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="inlineStr"/>
-      <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
-      <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
-      <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9583,22 +6247,6 @@
       <c r="Y73" t="n">
         <v>0</v>
       </c>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9678,52 +6326,6 @@
       <c r="Y74" t="n">
         <v>-103645</v>
       </c>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="n">
-        <v>12167</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>32557</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>13495</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>11764</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>23614</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>15701</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>24918</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>35706</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>43686</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>45125</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>37519</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>22421.008</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>33498</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>35734</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>26070</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9803,52 +6405,6 @@
       <c r="Y75" t="n">
         <v>1163</v>
       </c>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="n">
-        <v>-2730</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>-4255</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>-2481</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>-2110</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>-2847</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>-2993</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>-3595</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>-4329</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>-2883</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>-5441</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>-5670</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>-8409</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>-4784</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>-7341</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>-5371</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9928,52 +6484,6 @@
       <c r="Y76" t="n">
         <v>0</v>
       </c>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="n">
-        <v>294</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>-270</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>-1213</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>128</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>-341</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>52</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>345</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>-367</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>-821</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>-776</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>1209</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>-1655</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>-399</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>-762</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10053,22 +6563,6 @@
       <c r="Y77" t="n">
         <v>0</v>
       </c>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
-      <c r="AK77" t="inlineStr"/>
-      <c r="AL77" t="inlineStr"/>
-      <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="inlineStr"/>
-      <c r="AO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10148,22 +6642,6 @@
       <c r="Y78" t="n">
         <v>0</v>
       </c>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
-      <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
-      <c r="AN78" t="inlineStr"/>
-      <c r="AO78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10243,52 +6721,6 @@
       <c r="Y79" t="n">
         <v>0</v>
       </c>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="n">
-        <v>-6688</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>-5897</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>-642</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>-1428</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>-6286</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>-41</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>-1650</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>4554</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>-18253</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>-9134</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>-8218</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>-5610</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>-6940</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>-5313</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10367,52 +6799,6 @@
       </c>
       <c r="Y80" t="n">
         <v>-102482</v>
-      </c>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="n">
-        <v>3043</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>22355</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>10102</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>7013</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>14609</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>12326</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>19725</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>36276</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>22183</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>29729</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>22855</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>9611</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>20119</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>27994</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>14624</v>
       </c>
     </row>
   </sheetData>
